--- a/lesson_pivots.xlsx
+++ b/lesson_pivots.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,47 +441,71 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Среднее время урока</t>
+          <t>Средняя время на уроке</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Медианное время на уроке</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Среднее время теста</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Средняя оценка теста</t>
+          <t>Медианное время теста</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Средняя оценка за тест</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Медианная оценка за тест</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Пользователи, начавшие урок</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Пользователи, закончившие урок</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Пользователи, начавшие урок</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>16318.84897025172</v>
+        <v>16393.87816091954</v>
       </c>
       <c r="C2" t="n">
-        <v>213.2151029748284</v>
+        <v>181</v>
       </c>
       <c r="D2" t="n">
-        <v>8.773809523809524</v>
+        <v>214.1655172413793</v>
       </c>
       <c r="E2" t="n">
+        <v>34</v>
+      </c>
+      <c r="F2" t="n">
+        <v>8.772908366533864</v>
+      </c>
+      <c r="G2" t="n">
+        <v>9</v>
+      </c>
+      <c r="H2" t="n">
         <v>239</v>
       </c>
-      <c r="F2" t="n">
+      <c r="I2" t="n">
         <v>346</v>
       </c>
     </row>
@@ -490,18 +514,27 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>245.2037037037037</v>
+        <v>246.3441860465116</v>
       </c>
       <c r="C3" t="n">
-        <v>338.9398148148148</v>
+        <v>376</v>
       </c>
       <c r="D3" t="n">
-        <v>8.693181818181818</v>
+        <v>340.4418604651163</v>
       </c>
       <c r="E3" t="n">
+        <v>44</v>
+      </c>
+      <c r="F3" t="n">
+        <v>8.691428571428572</v>
+      </c>
+      <c r="G3" t="n">
+        <v>9</v>
+      </c>
+      <c r="H3" t="n">
         <v>158</v>
       </c>
-      <c r="F3" t="n">
+      <c r="I3" t="n">
         <v>179</v>
       </c>
     </row>
@@ -510,18 +543,27 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>4351.013245033113</v>
+        <v>4380.02</v>
       </c>
       <c r="C4" t="n">
-        <v>76</v>
+        <v>406</v>
       </c>
       <c r="D4" t="n">
-        <v>8.760869565217391</v>
+        <v>76.44666666666667</v>
       </c>
       <c r="E4" t="n">
+        <v>51</v>
+      </c>
+      <c r="F4" t="n">
+        <v>8.759124087591241</v>
+      </c>
+      <c r="G4" t="n">
+        <v>9</v>
+      </c>
+      <c r="H4" t="n">
         <v>116</v>
       </c>
-      <c r="F4" t="n">
+      <c r="I4" t="n">
         <v>125</v>
       </c>
     </row>
@@ -533,15 +575,24 @@
         <v>849.3196721311475</v>
       </c>
       <c r="C5" t="n">
+        <v>375</v>
+      </c>
+      <c r="D5" t="n">
         <v>663.1475409836065</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="F5" t="n">
         <v>8.842105263157896</v>
       </c>
-      <c r="E5" t="n">
+      <c r="G5" t="n">
+        <v>9</v>
+      </c>
+      <c r="H5" t="n">
         <v>94</v>
       </c>
-      <c r="F5" t="n">
+      <c r="I5" t="n">
         <v>99</v>
       </c>
     </row>
@@ -553,15 +604,24 @@
         <v>-4371.980952380953</v>
       </c>
       <c r="C6" t="n">
+        <v>275</v>
+      </c>
+      <c r="D6" t="n">
         <v>299.6095238095238</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
+        <v>57</v>
+      </c>
+      <c r="F6" t="n">
         <v>8.764705882352942</v>
       </c>
-      <c r="E6" t="n">
+      <c r="G6" t="n">
+        <v>9</v>
+      </c>
+      <c r="H6" t="n">
         <v>80</v>
       </c>
-      <c r="F6" t="n">
+      <c r="I6" t="n">
         <v>81</v>
       </c>
     </row>
@@ -573,15 +633,24 @@
         <v>4217.18</v>
       </c>
       <c r="C7" t="n">
+        <v>284.5</v>
+      </c>
+      <c r="D7" t="n">
         <v>316.15</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="F7" t="n">
         <v>8.785714285714286</v>
       </c>
-      <c r="E7" t="n">
+      <c r="G7" t="n">
+        <v>9</v>
+      </c>
+      <c r="H7" t="n">
         <v>74</v>
       </c>
-      <c r="F7" t="n">
+      <c r="I7" t="n">
         <v>75</v>
       </c>
     </row>
@@ -593,15 +662,24 @@
         <v>7481.549450549451</v>
       </c>
       <c r="C8" t="n">
+        <v>100</v>
+      </c>
+      <c r="D8" t="n">
         <v>968.2527472527472</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
+        <v>53</v>
+      </c>
+      <c r="F8" t="n">
         <v>8.933333333333334</v>
       </c>
-      <c r="E8" t="n">
+      <c r="G8" t="n">
+        <v>9</v>
+      </c>
+      <c r="H8" t="n">
         <v>65</v>
       </c>
-      <c r="F8" t="n">
+      <c r="I8" t="n">
         <v>66</v>
       </c>
     </row>
@@ -613,15 +691,24 @@
         <v>7915.305555555556</v>
       </c>
       <c r="C9" t="n">
+        <v>246.5</v>
+      </c>
+      <c r="D9" t="n">
         <v>344.5416666666667</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
+        <v>68</v>
+      </c>
+      <c r="F9" t="n">
         <v>6.921875</v>
       </c>
-      <c r="E9" t="n">
+      <c r="G9" t="n">
+        <v>7</v>
+      </c>
+      <c r="H9" t="n">
         <v>47</v>
       </c>
-      <c r="F9" t="n">
+      <c r="I9" t="n">
         <v>53</v>
       </c>
     </row>
@@ -633,15 +720,24 @@
         <v>88323.64406779662</v>
       </c>
       <c r="C10" t="n">
+        <v>360</v>
+      </c>
+      <c r="D10" t="n">
         <v>128.135593220339</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
+        <v>80</v>
+      </c>
+      <c r="F10" t="n">
         <v>7.948275862068965</v>
       </c>
-      <c r="E10" t="n">
+      <c r="G10" t="n">
+        <v>8</v>
+      </c>
+      <c r="H10" t="n">
         <v>43</v>
       </c>
-      <c r="F10" t="n">
+      <c r="I10" t="n">
         <v>43</v>
       </c>
     </row>
@@ -653,15 +749,24 @@
         <v>424.3508771929825</v>
       </c>
       <c r="C11" t="n">
+        <v>336</v>
+      </c>
+      <c r="D11" t="n">
         <v>138.6315789473684</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
+        <v>78</v>
+      </c>
+      <c r="F11" t="n">
         <v>7.303571428571429</v>
       </c>
-      <c r="E11" t="n">
+      <c r="G11" t="n">
+        <v>7</v>
+      </c>
+      <c r="H11" t="n">
         <v>38</v>
       </c>
-      <c r="F11" t="n">
+      <c r="I11" t="n">
         <v>38</v>
       </c>
     </row>
@@ -673,15 +778,24 @@
         <v>469.6727272727273</v>
       </c>
       <c r="C12" t="n">
+        <v>167</v>
+      </c>
+      <c r="D12" t="n">
         <v>1355.327272727273</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
+        <v>82</v>
+      </c>
+      <c r="F12" t="n">
         <v>7.384615384615385</v>
       </c>
-      <c r="E12" t="n">
+      <c r="G12" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H12" t="n">
         <v>37</v>
       </c>
-      <c r="F12" t="n">
+      <c r="I12" t="n">
         <v>38</v>
       </c>
     </row>
@@ -693,15 +807,24 @@
         <v>7436.75</v>
       </c>
       <c r="C13" t="n">
+        <v>200</v>
+      </c>
+      <c r="D13" t="n">
         <v>1613.25</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
+        <v>75</v>
+      </c>
+      <c r="F13" t="n">
         <v>7.285714285714286</v>
       </c>
-      <c r="E13" t="n">
+      <c r="G13" t="n">
+        <v>8</v>
+      </c>
+      <c r="H13" t="n">
         <v>34</v>
       </c>
-      <c r="F13" t="n">
+      <c r="I13" t="n">
         <v>34</v>
       </c>
     </row>
@@ -713,15 +836,24 @@
         <v>264.42</v>
       </c>
       <c r="C14" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="D14" t="n">
         <v>78.95999999999999</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
+        <v>60.5</v>
+      </c>
+      <c r="F14" t="n">
         <v>7.791666666666667</v>
       </c>
-      <c r="E14" t="n">
+      <c r="G14" t="n">
+        <v>9</v>
+      </c>
+      <c r="H14" t="n">
         <v>31</v>
       </c>
-      <c r="F14" t="n">
+      <c r="I14" t="n">
         <v>32</v>
       </c>
     </row>
@@ -733,15 +865,24 @@
         <v>5470.645833333333</v>
       </c>
       <c r="C15" t="n">
+        <v>192</v>
+      </c>
+      <c r="D15" t="n">
         <v>1257.583333333333</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="F15" t="n">
         <v>7.042553191489362</v>
       </c>
-      <c r="E15" t="n">
+      <c r="G15" t="n">
+        <v>8</v>
+      </c>
+      <c r="H15" t="n">
         <v>31</v>
       </c>
-      <c r="F15" t="n">
+      <c r="I15" t="n">
         <v>31</v>
       </c>
     </row>
@@ -755,11 +896,18 @@
       <c r="C16" t="n">
         <v>0</v>
       </c>
-      <c r="D16" t="inlineStr"/>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
